--- a/tests/indicators/a-d/Awesome/Awesome.Calc.xlsx
+++ b/tests/indicators/a-d/Awesome/Awesome.Calc.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E6CC0E8-E267-4B5B-82E2-DE1E63C456B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF362A-DE96-4622-B69D-DCDD8BA72DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Awesome" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>date</t>
   </si>
@@ -61,9 +61,6 @@
   <si>
     <t>Norm</t>
   </si>
-  <si>
-    <t>output</t>
-  </si>
 </sst>
 </file>
 
@@ -74,7 +71,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -578,14 +575,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="32" borderId="0" xfId="43" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -656,7 +653,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -676,7 +673,51 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="166" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -895,50 +936,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -953,27 +950,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:L503" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Currency" dataCellStyle="Currency">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8FE8A93B-7DCD-4B08-81FC-F6E776229EB3}" name="testdata" displayName="testdata" ref="A1:L503" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" headerRowCellStyle="Currency" dataCellStyle="Currency">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:G503">
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="11" dataCellStyle="Currency"/>
-    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="9" dataCellStyle="Currency"/>
-    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="8" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="5" dataCellStyle="Comma"/>
-    <tableColumn id="11" xr3:uid="{9B946255-FB8A-42A0-8BD8-465602FBA100}" name="median" dataDxfId="4" dataCellStyle="Currency">
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="12" dataCellStyle="Currency"/>
+    <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="11" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F6126363-2529-4BAC-9F69-0710D7A587F6}" name="low" dataDxfId="10" dataCellStyle="Currency"/>
+    <tableColumn id="6" xr3:uid="{1625C5E8-2802-4281-81F5-7308EFB9EB0C}" name="close" dataDxfId="9" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{9D524E41-7E60-45BD-80C8-513C8040D514}" name="volume" dataDxfId="8" dataCellStyle="Comma"/>
+    <tableColumn id="11" xr3:uid="{9B946255-FB8A-42A0-8BD8-465602FBA100}" name="median" dataDxfId="7" dataCellStyle="Currency">
       <calculatedColumnFormula>(testdata[[#This Row],[high]]+testdata[[#This Row],[low]])/2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{8C4CB219-C2D9-4C52-B1BC-921E5433FE7E}" name="SMA5" dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{A5ECD238-32A1-4F90-9A67-837F26822B59}" name="SMA34" dataDxfId="2" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{F773867A-3B96-449B-A87C-83A86582101E}" name="AO" dataDxfId="1" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{8C4CB219-C2D9-4C52-B1BC-921E5433FE7E}" name="SMA5" dataDxfId="6" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{A5ECD238-32A1-4F90-9A67-837F26822B59}" name="SMA34" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{F773867A-3B96-449B-A87C-83A86582101E}" name="AO" dataDxfId="4" dataCellStyle="Comma">
       <calculatedColumnFormula>testdata[[#This Row],[SMA5]]-testdata[[#This Row],[SMA34]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{53C0539B-84C8-4213-ADD7-4018350264D3}" name="Norm" dataDxfId="0" dataCellStyle="Comma">
+    <tableColumn id="12" xr3:uid="{53C0539B-84C8-4213-ADD7-4018350264D3}" name="Norm" dataDxfId="3" dataCellStyle="Comma">
       <calculatedColumnFormula>testdata[[#This Row],[AO]]/testdata[[#This Row],[median]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -983,11 +980,10 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44873A50-E704-4ABF-AE83-140CC564AAF2}" name="Table2" displayName="Table2" ref="N1:P503" totalsRowShown="0">
-  <autoFilter ref="N1:P503" xr:uid="{E923ABFE-17CD-4535-AE16-A5C69AA3F629}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FC496CF7-66DF-4A98-AE78-792DE6A9DE80}" name="date" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{FB8C5D45-4F3F-4120-B642-356A7E17DCB1}" name="AO" dataDxfId="15" dataCellStyle="Comma"/>
-    <tableColumn id="3" xr3:uid="{F3B6C676-3CC9-4415-89F0-72AE2A865958}" name="Norm" dataDxfId="14" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{FC496CF7-66DF-4A98-AE78-792DE6A9DE80}" name="date" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FB8C5D45-4F3F-4120-B642-356A7E17DCB1}" name="AO" dataDxfId="1" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{F3B6C676-3CC9-4415-89F0-72AE2A865958}" name="Norm" dataDxfId="0" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight12" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1293,17 +1289,20 @@
   <dimension ref="A1:P503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="3" customWidth="1"/>
-    <col min="3" max="6" width="10.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.7109375" customWidth="1"/>
     <col min="14" max="14" width="10.7109375" style="3" customWidth="1"/>
     <col min="15" max="16" width="9.7109375" style="10" bestFit="1" customWidth="1"/>
   </cols>
@@ -1345,9 +1344,7 @@
       <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="M1" s="12"/>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>

--- a/tests/indicators/a-d/Awesome/Awesome.Calc.xlsx
+++ b/tests/indicators/a-d/Awesome/Awesome.Calc.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <fileSharing readOnlyRecommended="1"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABF362A-DE96-4622-B69D-DCDD8BA72DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08412490-228B-4573-9B20-8B51F1118BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>volume</t>
   </si>
   <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>SMA5</t>
   </si>
   <si>
@@ -60,6 +57,9 @@
   </si>
   <si>
     <t>Norm</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -955,7 +955,7 @@
     <sortCondition ref="B2"/>
   </sortState>
   <tableColumns count="12">
-    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="index" dataDxfId="14" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{9F699A46-4958-42A4-A5C9-B52EB0EE585B}" name="i" dataDxfId="14" dataCellStyle="Currency"/>
     <tableColumn id="2" xr3:uid="{870234D4-B88D-4DBC-B1B5-A3A328FCAA43}" name="date" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{EF611352-AF5A-4141-B3FC-D86820A763EA}" name="open" dataDxfId="12" dataCellStyle="Currency"/>
     <tableColumn id="4" xr3:uid="{74B28648-F2A3-4493-9B04-FE02A7EBAE5E}" name="high" dataDxfId="11" dataCellStyle="Currency"/>
@@ -1294,7 +1294,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
@@ -1309,7 +1309,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1330,34 +1330,34 @@
         <v>5</v>
       </c>
       <c r="H1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>11</v>
       </c>
       <c r="M1" s="12"/>
       <c r="N1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3">
         <v>42738</v>
@@ -1393,7 +1393,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>42739</v>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
         <v>42740</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
         <v>42741</v>
@@ -1501,7 +1501,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>42744</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
         <v>42745</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
         <v>42746</v>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>42747</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>42748</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <v>42752</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
         <v>42753</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>42754</v>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="3">
         <v>42755</v>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3">
         <v>42758</v>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3">
         <v>42759</v>
@@ -1930,7 +1930,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>42760</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>42761</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
         <v>42762</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
         <v>42765</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="3">
         <v>42766</v>
@@ -2125,7 +2125,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="3">
         <v>42767</v>
@@ -2164,7 +2164,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="3">
         <v>42768</v>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>42769</v>
@@ -2242,7 +2242,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="3">
         <v>42772</v>
@@ -2281,7 +2281,7 @@
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3">
         <v>42773</v>
@@ -2320,7 +2320,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="3">
         <v>42774</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="3">
         <v>42775</v>
@@ -2398,7 +2398,7 @@
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="3">
         <v>42776</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="3">
         <v>42779</v>
@@ -2476,7 +2476,7 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="3">
         <v>42780</v>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3">
         <v>42781</v>
@@ -2554,7 +2554,7 @@
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3">
         <v>42782</v>
@@ -2593,7 +2593,7 @@
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
         <v>42783</v>
@@ -2632,7 +2632,7 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3">
         <v>42787</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3">
         <v>42788</v>
@@ -2736,7 +2736,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3">
         <v>42789</v>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3">
         <v>42790</v>
@@ -2840,7 +2840,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3">
         <v>42793</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3">
         <v>42794</v>
@@ -2944,7 +2944,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3">
         <v>42795</v>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="3">
         <v>42796</v>
@@ -3048,7 +3048,7 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="3">
         <v>42797</v>
@@ -3100,7 +3100,7 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="3">
         <v>42800</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="3">
         <v>42801</v>
@@ -3204,7 +3204,7 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="3">
         <v>42802</v>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="3">
         <v>42803</v>
@@ -3308,7 +3308,7 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="3">
         <v>42804</v>
@@ -3360,7 +3360,7 @@
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="3">
         <v>42807</v>
@@ -3412,7 +3412,7 @@
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" s="3">
         <v>42808</v>
@@ -3464,7 +3464,7 @@
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="3">
         <v>42809</v>
@@ -3516,7 +3516,7 @@
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="3">
         <v>42810</v>
@@ -3568,7 +3568,7 @@
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53" s="3">
         <v>42811</v>
@@ -3620,7 +3620,7 @@
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54" s="3">
         <v>42814</v>
@@ -3672,7 +3672,7 @@
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="3">
         <v>42815</v>
@@ -3724,7 +3724,7 @@
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" s="3">
         <v>42816</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57" s="3">
         <v>42817</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58" s="3">
         <v>42818</v>
@@ -3880,7 +3880,7 @@
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59" s="3">
         <v>42821</v>
@@ -3932,7 +3932,7 @@
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60" s="3">
         <v>42822</v>
@@ -3984,7 +3984,7 @@
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61" s="3">
         <v>42823</v>
@@ -4036,7 +4036,7 @@
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62" s="3">
         <v>42824</v>
@@ -4088,7 +4088,7 @@
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B63" s="3">
         <v>42825</v>
@@ -4140,7 +4140,7 @@
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B64" s="3">
         <v>42828</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B65" s="3">
         <v>42829</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B66" s="3">
         <v>42830</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3">
         <v>42831</v>
@@ -4348,7 +4348,7 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B68" s="3">
         <v>42832</v>
@@ -4400,7 +4400,7 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B69" s="3">
         <v>42835</v>
@@ -4452,7 +4452,7 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B70" s="3">
         <v>42836</v>
@@ -4504,7 +4504,7 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B71" s="3">
         <v>42837</v>
@@ -4556,7 +4556,7 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B72" s="3">
         <v>42838</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
         <v>42842</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B74" s="3">
         <v>42843</v>
@@ -4712,7 +4712,7 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B75" s="3">
         <v>42844</v>
@@ -4764,7 +4764,7 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="3">
         <v>42845</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B77" s="3">
         <v>42846</v>
@@ -4868,7 +4868,7 @@
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B78" s="3">
         <v>42849</v>
@@ -4920,7 +4920,7 @@
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B79" s="3">
         <v>42850</v>
@@ -4972,7 +4972,7 @@
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B80" s="3">
         <v>42851</v>
@@ -5024,7 +5024,7 @@
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B81" s="3">
         <v>42852</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B82" s="3">
         <v>42853</v>
@@ -5128,7 +5128,7 @@
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="3">
         <v>42856</v>
@@ -5180,7 +5180,7 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="3">
         <v>42857</v>
@@ -5232,7 +5232,7 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="3">
         <v>42858</v>
@@ -5284,7 +5284,7 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="3">
         <v>42859</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B87" s="3">
         <v>42860</v>
@@ -5388,7 +5388,7 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B88" s="3">
         <v>42863</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B89" s="3">
         <v>42864</v>
@@ -5492,7 +5492,7 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B90" s="3">
         <v>42865</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91" s="3">
         <v>42866</v>
@@ -5596,7 +5596,7 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B92" s="3">
         <v>42867</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B93" s="3">
         <v>42870</v>
@@ -5700,7 +5700,7 @@
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B94" s="3">
         <v>42871</v>
@@ -5752,7 +5752,7 @@
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B95" s="3">
         <v>42872</v>
@@ -5804,7 +5804,7 @@
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B96" s="3">
         <v>42873</v>
@@ -5856,7 +5856,7 @@
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B97" s="3">
         <v>42874</v>
@@ -5908,7 +5908,7 @@
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B98" s="3">
         <v>42877</v>
@@ -5960,7 +5960,7 @@
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B99" s="3">
         <v>42878</v>
@@ -6012,7 +6012,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100" s="3">
         <v>42879</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B101" s="3">
         <v>42880</v>
@@ -6116,7 +6116,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B102" s="3">
         <v>42881</v>
@@ -6168,7 +6168,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B103" s="3">
         <v>42885</v>
@@ -6220,7 +6220,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B104" s="3">
         <v>42886</v>
@@ -6272,7 +6272,7 @@
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B105" s="3">
         <v>42887</v>
@@ -6324,7 +6324,7 @@
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="3">
         <v>42888</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B107" s="3">
         <v>42891</v>
@@ -6428,7 +6428,7 @@
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B108" s="3">
         <v>42892</v>
@@ -6480,7 +6480,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B109" s="3">
         <v>42893</v>
@@ -6532,7 +6532,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B110" s="3">
         <v>42894</v>
@@ -6584,7 +6584,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B111" s="3">
         <v>42895</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B112" s="3">
         <v>42898</v>
@@ -6688,7 +6688,7 @@
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B113" s="3">
         <v>42899</v>
@@ -6740,7 +6740,7 @@
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B114" s="3">
         <v>42900</v>
@@ -6792,7 +6792,7 @@
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B115" s="3">
         <v>42901</v>
@@ -6844,7 +6844,7 @@
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B116" s="3">
         <v>42902</v>
@@ -6896,7 +6896,7 @@
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B117" s="3">
         <v>42905</v>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B118" s="3">
         <v>42906</v>
@@ -7000,7 +7000,7 @@
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B119" s="3">
         <v>42907</v>
@@ -7052,7 +7052,7 @@
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B120" s="3">
         <v>42908</v>
@@ -7104,7 +7104,7 @@
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B121" s="3">
         <v>42909</v>
@@ -7156,7 +7156,7 @@
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="3">
         <v>42912</v>
@@ -7208,7 +7208,7 @@
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B123" s="3">
         <v>42913</v>
@@ -7260,7 +7260,7 @@
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B124" s="3">
         <v>42914</v>
@@ -7312,7 +7312,7 @@
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B125" s="3">
         <v>42915</v>
@@ -7364,7 +7364,7 @@
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="3">
         <v>42916</v>
@@ -7416,7 +7416,7 @@
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B127" s="3">
         <v>42919</v>
@@ -7468,7 +7468,7 @@
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="3">
         <v>42921</v>
@@ -7520,7 +7520,7 @@
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B129" s="3">
         <v>42922</v>
@@ -7572,7 +7572,7 @@
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B130" s="3">
         <v>42923</v>
@@ -7624,7 +7624,7 @@
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B131" s="3">
         <v>42926</v>
@@ -7676,7 +7676,7 @@
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B132" s="3">
         <v>42927</v>
@@ -7728,7 +7728,7 @@
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B133" s="3">
         <v>42928</v>
@@ -7780,7 +7780,7 @@
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B134" s="3">
         <v>42929</v>
@@ -7832,7 +7832,7 @@
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B135" s="3">
         <v>42930</v>
@@ -7884,7 +7884,7 @@
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B136" s="3">
         <v>42933</v>
@@ -7936,7 +7936,7 @@
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B137" s="3">
         <v>42934</v>
@@ -7988,7 +7988,7 @@
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" s="3">
         <v>42935</v>
@@ -8040,7 +8040,7 @@
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" s="3">
         <v>42936</v>
@@ -8092,7 +8092,7 @@
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" s="3">
         <v>42937</v>
@@ -8144,7 +8144,7 @@
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" s="3">
         <v>42940</v>
@@ -8196,7 +8196,7 @@
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" s="3">
         <v>42941</v>
@@ -8248,7 +8248,7 @@
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" s="3">
         <v>42942</v>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" s="3">
         <v>42943</v>
@@ -8352,7 +8352,7 @@
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" s="3">
         <v>42944</v>
@@ -8404,7 +8404,7 @@
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" s="3">
         <v>42947</v>
@@ -8456,7 +8456,7 @@
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" s="3">
         <v>42948</v>
@@ -8508,7 +8508,7 @@
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" s="3">
         <v>42949</v>
@@ -8560,7 +8560,7 @@
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" s="3">
         <v>42950</v>
@@ -8612,7 +8612,7 @@
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" s="3">
         <v>42951</v>
@@ -8664,7 +8664,7 @@
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" s="3">
         <v>42954</v>
@@ -8716,7 +8716,7 @@
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" s="3">
         <v>42955</v>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" s="3">
         <v>42956</v>
@@ -8820,7 +8820,7 @@
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" s="3">
         <v>42957</v>
@@ -8872,7 +8872,7 @@
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" s="3">
         <v>42958</v>
@@ -8924,7 +8924,7 @@
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B156" s="3">
         <v>42961</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B157" s="3">
         <v>42962</v>
@@ -9028,7 +9028,7 @@
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B158" s="3">
         <v>42963</v>
@@ -9080,7 +9080,7 @@
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B159" s="3">
         <v>42964</v>
@@ -9132,7 +9132,7 @@
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160" s="3">
         <v>42965</v>
@@ -9184,7 +9184,7 @@
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B161" s="3">
         <v>42968</v>
@@ -9236,7 +9236,7 @@
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B162" s="3">
         <v>42969</v>
@@ -9288,7 +9288,7 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B163" s="3">
         <v>42970</v>
@@ -9340,7 +9340,7 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B164" s="3">
         <v>42971</v>
@@ -9392,7 +9392,7 @@
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B165" s="3">
         <v>42972</v>
@@ -9444,7 +9444,7 @@
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B166" s="3">
         <v>42975</v>
@@ -9496,7 +9496,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B167" s="3">
         <v>42976</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B168" s="3">
         <v>42977</v>
@@ -9600,7 +9600,7 @@
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B169" s="3">
         <v>42978</v>
@@ -9652,7 +9652,7 @@
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B170" s="3">
         <v>42979</v>
@@ -9704,7 +9704,7 @@
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171" s="3">
         <v>42983</v>
@@ -9756,7 +9756,7 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B172" s="3">
         <v>42984</v>
@@ -9808,7 +9808,7 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B173" s="3">
         <v>42985</v>
@@ -9860,7 +9860,7 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B174" s="3">
         <v>42986</v>
@@ -9912,7 +9912,7 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B175" s="3">
         <v>42989</v>
@@ -9964,7 +9964,7 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B176" s="3">
         <v>42990</v>
@@ -10016,7 +10016,7 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B177" s="3">
         <v>42991</v>
@@ -10068,7 +10068,7 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B178" s="3">
         <v>42992</v>
@@ -10120,7 +10120,7 @@
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B179" s="3">
         <v>42993</v>
@@ -10172,7 +10172,7 @@
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B180" s="3">
         <v>42996</v>
@@ -10224,7 +10224,7 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B181" s="3">
         <v>42997</v>
@@ -10276,7 +10276,7 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B182" s="3">
         <v>42998</v>
@@ -10328,7 +10328,7 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B183" s="3">
         <v>42999</v>
@@ -10380,7 +10380,7 @@
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B184" s="3">
         <v>43000</v>
@@ -10432,7 +10432,7 @@
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B185" s="3">
         <v>43003</v>
@@ -10484,7 +10484,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B186" s="3">
         <v>43004</v>
@@ -10536,7 +10536,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B187" s="3">
         <v>43005</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B188" s="3">
         <v>43006</v>
@@ -10640,7 +10640,7 @@
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B189" s="3">
         <v>43007</v>
@@ -10692,7 +10692,7 @@
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B190" s="3">
         <v>43010</v>
@@ -10744,7 +10744,7 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B191" s="3">
         <v>43011</v>
@@ -10796,7 +10796,7 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B192" s="3">
         <v>43012</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B193" s="3">
         <v>43013</v>
@@ -10900,7 +10900,7 @@
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B194" s="3">
         <v>43014</v>
@@ -10952,7 +10952,7 @@
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B195" s="3">
         <v>43017</v>
@@ -11004,7 +11004,7 @@
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B196" s="3">
         <v>43018</v>
@@ -11056,7 +11056,7 @@
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B197" s="3">
         <v>43019</v>
@@ -11108,7 +11108,7 @@
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B198" s="3">
         <v>43020</v>
@@ -11160,7 +11160,7 @@
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B199" s="3">
         <v>43021</v>
@@ -11212,7 +11212,7 @@
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B200" s="3">
         <v>43024</v>
@@ -11264,7 +11264,7 @@
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B201" s="3">
         <v>43025</v>
@@ -11316,7 +11316,7 @@
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B202" s="3">
         <v>43026</v>
@@ -11368,7 +11368,7 @@
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B203" s="3">
         <v>43027</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B204" s="3">
         <v>43028</v>
@@ -11472,7 +11472,7 @@
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B205" s="3">
         <v>43031</v>
@@ -11524,7 +11524,7 @@
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B206" s="3">
         <v>43032</v>
@@ -11576,7 +11576,7 @@
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B207" s="3">
         <v>43033</v>
@@ -11628,7 +11628,7 @@
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B208" s="3">
         <v>43034</v>
@@ -11680,7 +11680,7 @@
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B209" s="3">
         <v>43035</v>
@@ -11732,7 +11732,7 @@
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B210" s="3">
         <v>43038</v>
@@ -11784,7 +11784,7 @@
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B211" s="3">
         <v>43039</v>
@@ -11836,7 +11836,7 @@
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B212" s="3">
         <v>43040</v>
@@ -11888,7 +11888,7 @@
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B213" s="3">
         <v>43041</v>
@@ -11940,7 +11940,7 @@
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B214" s="3">
         <v>43042</v>
@@ -11992,7 +11992,7 @@
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B215" s="3">
         <v>43045</v>
@@ -12044,7 +12044,7 @@
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B216" s="3">
         <v>43046</v>
@@ -12096,7 +12096,7 @@
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B217" s="3">
         <v>43047</v>
@@ -12148,7 +12148,7 @@
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B218" s="3">
         <v>43048</v>
@@ -12200,7 +12200,7 @@
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B219" s="3">
         <v>43049</v>
@@ -12252,7 +12252,7 @@
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B220" s="3">
         <v>43052</v>
@@ -12304,7 +12304,7 @@
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B221" s="3">
         <v>43053</v>
@@ -12356,7 +12356,7 @@
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B222" s="3">
         <v>43054</v>
@@ -12408,7 +12408,7 @@
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B223" s="3">
         <v>43055</v>
@@ -12460,7 +12460,7 @@
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B224" s="3">
         <v>43056</v>
@@ -12512,7 +12512,7 @@
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B225" s="3">
         <v>43059</v>
@@ -12564,7 +12564,7 @@
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B226" s="3">
         <v>43060</v>
@@ -12616,7 +12616,7 @@
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B227" s="3">
         <v>43061</v>
@@ -12668,7 +12668,7 @@
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B228" s="3">
         <v>43063</v>
@@ -12720,7 +12720,7 @@
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B229" s="3">
         <v>43066</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B230" s="3">
         <v>43067</v>
@@ -12824,7 +12824,7 @@
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B231" s="3">
         <v>43068</v>
@@ -12876,7 +12876,7 @@
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B232" s="3">
         <v>43069</v>
@@ -12928,7 +12928,7 @@
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B233" s="3">
         <v>43070</v>
@@ -12980,7 +12980,7 @@
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B234" s="3">
         <v>43073</v>
@@ -13032,7 +13032,7 @@
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B235" s="3">
         <v>43074</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B236" s="3">
         <v>43075</v>
@@ -13136,7 +13136,7 @@
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B237" s="3">
         <v>43076</v>
@@ -13188,7 +13188,7 @@
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B238" s="3">
         <v>43077</v>
@@ -13240,7 +13240,7 @@
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B239" s="3">
         <v>43080</v>
@@ -13292,7 +13292,7 @@
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B240" s="3">
         <v>43081</v>
@@ -13344,7 +13344,7 @@
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B241" s="3">
         <v>43082</v>
@@ -13396,7 +13396,7 @@
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B242" s="3">
         <v>43083</v>
@@ -13448,7 +13448,7 @@
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B243" s="3">
         <v>43084</v>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B244" s="3">
         <v>43087</v>
@@ -13552,7 +13552,7 @@
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B245" s="3">
         <v>43088</v>
@@ -13604,7 +13604,7 @@
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B246" s="3">
         <v>43089</v>
@@ -13656,7 +13656,7 @@
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B247" s="3">
         <v>43090</v>
@@ -13708,7 +13708,7 @@
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B248" s="3">
         <v>43091</v>
@@ -13760,7 +13760,7 @@
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B249" s="3">
         <v>43095</v>
@@ -13812,7 +13812,7 @@
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B250" s="3">
         <v>43096</v>
@@ -13864,7 +13864,7 @@
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B251" s="3">
         <v>43097</v>
@@ -13916,7 +13916,7 @@
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B252" s="3">
         <v>43098</v>
@@ -13968,7 +13968,7 @@
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B253" s="3">
         <v>43102</v>
@@ -14020,7 +14020,7 @@
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B254" s="3">
         <v>43103</v>
@@ -14072,7 +14072,7 @@
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="3">
         <v>43104</v>
@@ -14124,7 +14124,7 @@
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B256" s="3">
         <v>43105</v>
@@ -14176,7 +14176,7 @@
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B257" s="3">
         <v>43108</v>
@@ -14228,7 +14228,7 @@
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B258" s="3">
         <v>43109</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B259" s="3">
         <v>43110</v>
@@ -14332,7 +14332,7 @@
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B260" s="3">
         <v>43111</v>
@@ -14384,7 +14384,7 @@
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="3">
         <v>43112</v>
@@ -14436,7 +14436,7 @@
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B262" s="3">
         <v>43116</v>
@@ -14488,7 +14488,7 @@
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B263" s="3">
         <v>43117</v>
@@ -14540,7 +14540,7 @@
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B264" s="3">
         <v>43118</v>
@@ -14592,7 +14592,7 @@
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B265" s="3">
         <v>43119</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B266" s="3">
         <v>43122</v>
@@ -14696,7 +14696,7 @@
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B267" s="3">
         <v>43123</v>
@@ -14748,7 +14748,7 @@
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B268" s="3">
         <v>43124</v>
@@ -14800,7 +14800,7 @@
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B269" s="3">
         <v>43125</v>
@@ -14852,7 +14852,7 @@
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B270" s="3">
         <v>43126</v>
@@ -14904,7 +14904,7 @@
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B271" s="3">
         <v>43129</v>
@@ -14956,7 +14956,7 @@
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B272" s="3">
         <v>43130</v>
@@ -15008,7 +15008,7 @@
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B273" s="3">
         <v>43131</v>
@@ -15060,7 +15060,7 @@
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B274" s="3">
         <v>43132</v>
@@ -15112,7 +15112,7 @@
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B275" s="3">
         <v>43133</v>
@@ -15164,7 +15164,7 @@
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B276" s="3">
         <v>43136</v>
@@ -15216,7 +15216,7 @@
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B277" s="3">
         <v>43137</v>
@@ -15268,7 +15268,7 @@
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B278" s="3">
         <v>43138</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B279" s="3">
         <v>43139</v>
@@ -15372,7 +15372,7 @@
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B280" s="3">
         <v>43140</v>
@@ -15424,7 +15424,7 @@
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B281" s="3">
         <v>43143</v>
@@ -15476,7 +15476,7 @@
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B282" s="3">
         <v>43144</v>
@@ -15528,7 +15528,7 @@
     </row>
     <row r="283" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B283" s="3">
         <v>43145</v>
@@ -15580,7 +15580,7 @@
     </row>
     <row r="284" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B284" s="3">
         <v>43146</v>
@@ -15632,7 +15632,7 @@
     </row>
     <row r="285" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B285" s="3">
         <v>43147</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="286" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B286" s="3">
         <v>43151</v>
@@ -15736,7 +15736,7 @@
     </row>
     <row r="287" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B287" s="3">
         <v>43152</v>
@@ -15788,7 +15788,7 @@
     </row>
     <row r="288" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B288" s="3">
         <v>43153</v>
@@ -15840,7 +15840,7 @@
     </row>
     <row r="289" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B289" s="3">
         <v>43154</v>
@@ -15892,7 +15892,7 @@
     </row>
     <row r="290" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B290" s="3">
         <v>43157</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="291" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A291" s="6">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B291" s="3">
         <v>43158</v>
@@ -15996,7 +15996,7 @@
     </row>
     <row r="292" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A292" s="6">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B292" s="3">
         <v>43159</v>
@@ -16048,7 +16048,7 @@
     </row>
     <row r="293" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A293" s="6">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B293" s="3">
         <v>43160</v>
@@ -16100,7 +16100,7 @@
     </row>
     <row r="294" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A294" s="6">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B294" s="3">
         <v>43161</v>
@@ -16152,7 +16152,7 @@
     </row>
     <row r="295" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A295" s="6">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B295" s="3">
         <v>43164</v>
@@ -16204,7 +16204,7 @@
     </row>
     <row r="296" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A296" s="6">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B296" s="3">
         <v>43165</v>
@@ -16256,7 +16256,7 @@
     </row>
     <row r="297" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A297" s="6">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B297" s="3">
         <v>43166</v>
@@ -16308,7 +16308,7 @@
     </row>
     <row r="298" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A298" s="6">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B298" s="3">
         <v>43167</v>
@@ -16360,7 +16360,7 @@
     </row>
     <row r="299" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A299" s="6">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B299" s="3">
         <v>43168</v>
@@ -16412,7 +16412,7 @@
     </row>
     <row r="300" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A300" s="6">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B300" s="3">
         <v>43171</v>
@@ -16464,7 +16464,7 @@
     </row>
     <row r="301" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A301" s="6">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B301" s="3">
         <v>43172</v>
@@ -16516,7 +16516,7 @@
     </row>
     <row r="302" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A302" s="6">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B302" s="3">
         <v>43173</v>
@@ -16568,7 +16568,7 @@
     </row>
     <row r="303" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A303" s="6">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B303" s="3">
         <v>43174</v>
@@ -16620,7 +16620,7 @@
     </row>
     <row r="304" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A304" s="6">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B304" s="3">
         <v>43175</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="305" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A305" s="6">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B305" s="3">
         <v>43178</v>
@@ -16724,7 +16724,7 @@
     </row>
     <row r="306" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A306" s="6">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B306" s="3">
         <v>43179</v>
@@ -16776,7 +16776,7 @@
     </row>
     <row r="307" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A307" s="6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B307" s="3">
         <v>43180</v>
@@ -16828,7 +16828,7 @@
     </row>
     <row r="308" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A308" s="6">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B308" s="3">
         <v>43181</v>
@@ -16880,7 +16880,7 @@
     </row>
     <row r="309" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A309" s="6">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B309" s="3">
         <v>43182</v>
@@ -16932,7 +16932,7 @@
     </row>
     <row r="310" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A310" s="6">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B310" s="3">
         <v>43185</v>
@@ -16984,7 +16984,7 @@
     </row>
     <row r="311" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A311" s="6">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B311" s="3">
         <v>43186</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="6">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B312" s="3">
         <v>43187</v>
@@ -17088,7 +17088,7 @@
     </row>
     <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="6">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B313" s="3">
         <v>43188</v>
@@ -17140,7 +17140,7 @@
     </row>
     <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B314" s="3">
         <v>43192</v>
@@ -17192,7 +17192,7 @@
     </row>
     <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B315" s="3">
         <v>43193</v>
@@ -17244,7 +17244,7 @@
     </row>
     <row r="316" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B316" s="3">
         <v>43194</v>
@@ -17296,7 +17296,7 @@
     </row>
     <row r="317" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B317" s="3">
         <v>43195</v>
@@ -17348,7 +17348,7 @@
     </row>
     <row r="318" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B318" s="3">
         <v>43196</v>
@@ -17400,7 +17400,7 @@
     </row>
     <row r="319" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B319" s="3">
         <v>43199</v>
@@ -17452,7 +17452,7 @@
     </row>
     <row r="320" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B320" s="3">
         <v>43200</v>
@@ -17504,7 +17504,7 @@
     </row>
     <row r="321" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B321" s="3">
         <v>43201</v>
@@ -17556,7 +17556,7 @@
     </row>
     <row r="322" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B322" s="3">
         <v>43202</v>
@@ -17608,7 +17608,7 @@
     </row>
     <row r="323" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B323" s="3">
         <v>43203</v>
@@ -17660,7 +17660,7 @@
     </row>
     <row r="324" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B324" s="3">
         <v>43206</v>
@@ -17712,7 +17712,7 @@
     </row>
     <row r="325" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B325" s="3">
         <v>43207</v>
@@ -17764,7 +17764,7 @@
     </row>
     <row r="326" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B326" s="3">
         <v>43208</v>
@@ -17816,7 +17816,7 @@
     </row>
     <row r="327" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B327" s="3">
         <v>43209</v>
@@ -17868,7 +17868,7 @@
     </row>
     <row r="328" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B328" s="3">
         <v>43210</v>
@@ -17920,7 +17920,7 @@
     </row>
     <row r="329" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B329" s="3">
         <v>43213</v>
@@ -17972,7 +17972,7 @@
     </row>
     <row r="330" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B330" s="3">
         <v>43214</v>
@@ -18024,7 +18024,7 @@
     </row>
     <row r="331" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B331" s="3">
         <v>43215</v>
@@ -18076,7 +18076,7 @@
     </row>
     <row r="332" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B332" s="3">
         <v>43216</v>
@@ -18128,7 +18128,7 @@
     </row>
     <row r="333" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B333" s="3">
         <v>43217</v>
@@ -18180,7 +18180,7 @@
     </row>
     <row r="334" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B334" s="3">
         <v>43220</v>
@@ -18232,7 +18232,7 @@
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B335" s="3">
         <v>43221</v>
@@ -18284,7 +18284,7 @@
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B336" s="3">
         <v>43222</v>
@@ -18336,7 +18336,7 @@
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A337" s="6">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B337" s="3">
         <v>43223</v>
@@ -18388,7 +18388,7 @@
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A338" s="6">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B338" s="3">
         <v>43224</v>
@@ -18440,7 +18440,7 @@
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A339" s="6">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B339" s="3">
         <v>43227</v>
@@ -18492,7 +18492,7 @@
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A340" s="6">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B340" s="3">
         <v>43228</v>
@@ -18544,7 +18544,7 @@
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A341" s="6">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B341" s="3">
         <v>43229</v>
@@ -18596,7 +18596,7 @@
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A342" s="6">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B342" s="3">
         <v>43230</v>
@@ -18648,7 +18648,7 @@
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A343" s="6">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B343" s="3">
         <v>43231</v>
@@ -18700,7 +18700,7 @@
     </row>
     <row r="344" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A344" s="6">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B344" s="3">
         <v>43234</v>
@@ -18752,7 +18752,7 @@
     </row>
     <row r="345" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A345" s="6">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B345" s="3">
         <v>43235</v>
@@ -18804,7 +18804,7 @@
     </row>
     <row r="346" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A346" s="6">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B346" s="3">
         <v>43236</v>
@@ -18856,7 +18856,7 @@
     </row>
     <row r="347" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A347" s="6">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B347" s="3">
         <v>43237</v>
@@ -18908,7 +18908,7 @@
     </row>
     <row r="348" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A348" s="6">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="3">
         <v>43238</v>
@@ -18960,7 +18960,7 @@
     </row>
     <row r="349" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A349" s="6">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B349" s="3">
         <v>43241</v>
@@ -19012,7 +19012,7 @@
     </row>
     <row r="350" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A350" s="6">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B350" s="3">
         <v>43242</v>
@@ -19064,7 +19064,7 @@
     </row>
     <row r="351" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A351" s="6">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B351" s="3">
         <v>43243</v>
@@ -19116,7 +19116,7 @@
     </row>
     <row r="352" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A352" s="6">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B352" s="3">
         <v>43244</v>
@@ -19168,7 +19168,7 @@
     </row>
     <row r="353" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A353" s="6">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B353" s="3">
         <v>43245</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="354" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A354" s="6">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B354" s="3">
         <v>43249</v>
@@ -19272,7 +19272,7 @@
     </row>
     <row r="355" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A355" s="6">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B355" s="3">
         <v>43250</v>
@@ -19324,7 +19324,7 @@
     </row>
     <row r="356" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A356" s="6">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B356" s="3">
         <v>43251</v>
@@ -19376,7 +19376,7 @@
     </row>
     <row r="357" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A357" s="6">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B357" s="3">
         <v>43252</v>
@@ -19428,7 +19428,7 @@
     </row>
     <row r="358" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A358" s="6">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B358" s="3">
         <v>43255</v>
@@ -19480,7 +19480,7 @@
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A359" s="6">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B359" s="3">
         <v>43256</v>
@@ -19532,7 +19532,7 @@
     </row>
     <row r="360" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A360" s="6">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B360" s="3">
         <v>43257</v>
@@ -19584,7 +19584,7 @@
     </row>
     <row r="361" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A361" s="6">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B361" s="3">
         <v>43258</v>
@@ -19636,7 +19636,7 @@
     </row>
     <row r="362" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A362" s="6">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B362" s="3">
         <v>43259</v>
@@ -19688,7 +19688,7 @@
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A363" s="6">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B363" s="3">
         <v>43262</v>
@@ -19740,7 +19740,7 @@
     </row>
     <row r="364" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A364" s="6">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B364" s="3">
         <v>43263</v>
@@ -19792,7 +19792,7 @@
     </row>
     <row r="365" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A365" s="6">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B365" s="3">
         <v>43264</v>
@@ -19844,7 +19844,7 @@
     </row>
     <row r="366" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A366" s="6">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B366" s="3">
         <v>43265</v>
@@ -19896,7 +19896,7 @@
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A367" s="6">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B367" s="3">
         <v>43266</v>
@@ -19948,7 +19948,7 @@
     </row>
     <row r="368" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A368" s="6">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B368" s="3">
         <v>43269</v>
@@ -20000,7 +20000,7 @@
     </row>
     <row r="369" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A369" s="6">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B369" s="3">
         <v>43270</v>
@@ -20052,7 +20052,7 @@
     </row>
     <row r="370" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A370" s="6">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B370" s="3">
         <v>43271</v>
@@ -20104,7 +20104,7 @@
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A371" s="6">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B371" s="3">
         <v>43272</v>
@@ -20156,7 +20156,7 @@
     </row>
     <row r="372" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A372" s="6">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B372" s="3">
         <v>43273</v>
@@ -20208,7 +20208,7 @@
     </row>
     <row r="373" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A373" s="6">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B373" s="3">
         <v>43276</v>
@@ -20260,7 +20260,7 @@
     </row>
     <row r="374" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A374" s="6">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B374" s="3">
         <v>43277</v>
@@ -20312,7 +20312,7 @@
     </row>
     <row r="375" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A375" s="6">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B375" s="3">
         <v>43278</v>
@@ -20364,7 +20364,7 @@
     </row>
     <row r="376" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A376" s="6">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B376" s="3">
         <v>43279</v>
@@ -20416,7 +20416,7 @@
     </row>
     <row r="377" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A377" s="6">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B377" s="3">
         <v>43280</v>
@@ -20468,7 +20468,7 @@
     </row>
     <row r="378" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A378" s="6">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B378" s="3">
         <v>43283</v>
@@ -20520,7 +20520,7 @@
     </row>
     <row r="379" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A379" s="6">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B379" s="3">
         <v>43284</v>
@@ -20572,7 +20572,7 @@
     </row>
     <row r="380" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A380" s="6">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B380" s="3">
         <v>43286</v>
@@ -20624,7 +20624,7 @@
     </row>
     <row r="381" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A381" s="6">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B381" s="3">
         <v>43287</v>
@@ -20676,7 +20676,7 @@
     </row>
     <row r="382" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A382" s="6">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B382" s="3">
         <v>43290</v>
@@ -20728,7 +20728,7 @@
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A383" s="6">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B383" s="3">
         <v>43291</v>
@@ -20780,7 +20780,7 @@
     </row>
     <row r="384" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A384" s="6">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B384" s="3">
         <v>43292</v>
@@ -20832,7 +20832,7 @@
     </row>
     <row r="385" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A385" s="6">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B385" s="3">
         <v>43293</v>
@@ -20884,7 +20884,7 @@
     </row>
     <row r="386" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A386" s="6">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B386" s="3">
         <v>43294</v>
@@ -20936,7 +20936,7 @@
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A387" s="6">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B387" s="3">
         <v>43297</v>
@@ -20988,7 +20988,7 @@
     </row>
     <row r="388" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A388" s="6">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B388" s="3">
         <v>43298</v>
@@ -21040,7 +21040,7 @@
     </row>
     <row r="389" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A389" s="6">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B389" s="3">
         <v>43299</v>
@@ -21092,7 +21092,7 @@
     </row>
     <row r="390" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A390" s="6">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B390" s="3">
         <v>43300</v>
@@ -21144,7 +21144,7 @@
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A391" s="6">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B391" s="3">
         <v>43301</v>
@@ -21196,7 +21196,7 @@
     </row>
     <row r="392" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A392" s="6">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B392" s="3">
         <v>43304</v>
@@ -21248,7 +21248,7 @@
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A393" s="6">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B393" s="3">
         <v>43305</v>
@@ -21300,7 +21300,7 @@
     </row>
     <row r="394" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A394" s="6">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B394" s="3">
         <v>43306</v>
@@ -21352,7 +21352,7 @@
     </row>
     <row r="395" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A395" s="6">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B395" s="3">
         <v>43307</v>
@@ -21404,7 +21404,7 @@
     </row>
     <row r="396" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A396" s="6">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B396" s="3">
         <v>43308</v>
@@ -21456,7 +21456,7 @@
     </row>
     <row r="397" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A397" s="6">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B397" s="3">
         <v>43311</v>
@@ -21508,7 +21508,7 @@
     </row>
     <row r="398" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A398" s="6">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B398" s="3">
         <v>43312</v>
@@ -21560,7 +21560,7 @@
     </row>
     <row r="399" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A399" s="6">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B399" s="3">
         <v>43313</v>
@@ -21612,7 +21612,7 @@
     </row>
     <row r="400" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A400" s="6">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B400" s="3">
         <v>43314</v>
@@ -21664,7 +21664,7 @@
     </row>
     <row r="401" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A401" s="6">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B401" s="3">
         <v>43315</v>
@@ -21716,7 +21716,7 @@
     </row>
     <row r="402" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A402" s="6">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B402" s="3">
         <v>43318</v>
@@ -21768,7 +21768,7 @@
     </row>
     <row r="403" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A403" s="6">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B403" s="3">
         <v>43319</v>
@@ -21820,7 +21820,7 @@
     </row>
     <row r="404" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A404" s="6">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B404" s="3">
         <v>43320</v>
@@ -21872,7 +21872,7 @@
     </row>
     <row r="405" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A405" s="6">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B405" s="3">
         <v>43321</v>
@@ -21924,7 +21924,7 @@
     </row>
     <row r="406" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A406" s="6">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B406" s="3">
         <v>43322</v>
@@ -21976,7 +21976,7 @@
     </row>
     <row r="407" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A407" s="6">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B407" s="3">
         <v>43325</v>
@@ -22028,7 +22028,7 @@
     </row>
     <row r="408" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A408" s="6">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B408" s="3">
         <v>43326</v>
@@ -22080,7 +22080,7 @@
     </row>
     <row r="409" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A409" s="6">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B409" s="3">
         <v>43327</v>
@@ -22132,7 +22132,7 @@
     </row>
     <row r="410" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A410" s="6">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B410" s="3">
         <v>43328</v>
@@ -22184,7 +22184,7 @@
     </row>
     <row r="411" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A411" s="6">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B411" s="3">
         <v>43329</v>
@@ -22236,7 +22236,7 @@
     </row>
     <row r="412" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A412" s="6">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B412" s="3">
         <v>43332</v>
@@ -22288,7 +22288,7 @@
     </row>
     <row r="413" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A413" s="6">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B413" s="3">
         <v>43333</v>
@@ -22340,7 +22340,7 @@
     </row>
     <row r="414" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A414" s="6">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B414" s="3">
         <v>43334</v>
@@ -22392,7 +22392,7 @@
     </row>
     <row r="415" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A415" s="6">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B415" s="3">
         <v>43335</v>
@@ -22444,7 +22444,7 @@
     </row>
     <row r="416" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A416" s="6">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B416" s="3">
         <v>43336</v>
@@ -22496,7 +22496,7 @@
     </row>
     <row r="417" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A417" s="6">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B417" s="3">
         <v>43339</v>
@@ -22548,7 +22548,7 @@
     </row>
     <row r="418" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A418" s="6">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B418" s="3">
         <v>43340</v>
@@ -22600,7 +22600,7 @@
     </row>
     <row r="419" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A419" s="6">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B419" s="3">
         <v>43341</v>
@@ -22652,7 +22652,7 @@
     </row>
     <row r="420" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A420" s="6">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B420" s="3">
         <v>43342</v>
@@ -22704,7 +22704,7 @@
     </row>
     <row r="421" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A421" s="6">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B421" s="3">
         <v>43343</v>
@@ -22756,7 +22756,7 @@
     </row>
     <row r="422" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A422" s="6">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B422" s="3">
         <v>43347</v>
@@ -22808,7 +22808,7 @@
     </row>
     <row r="423" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A423" s="6">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B423" s="3">
         <v>43348</v>
@@ -22860,7 +22860,7 @@
     </row>
     <row r="424" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A424" s="6">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B424" s="3">
         <v>43349</v>
@@ -22912,7 +22912,7 @@
     </row>
     <row r="425" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A425" s="6">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B425" s="3">
         <v>43350</v>
@@ -22964,7 +22964,7 @@
     </row>
     <row r="426" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A426" s="6">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B426" s="3">
         <v>43353</v>
@@ -23016,7 +23016,7 @@
     </row>
     <row r="427" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A427" s="6">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B427" s="3">
         <v>43354</v>
@@ -23068,7 +23068,7 @@
     </row>
     <row r="428" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A428" s="6">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B428" s="3">
         <v>43355</v>
@@ -23120,7 +23120,7 @@
     </row>
     <row r="429" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A429" s="6">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B429" s="3">
         <v>43356</v>
@@ -23172,7 +23172,7 @@
     </row>
     <row r="430" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A430" s="6">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B430" s="3">
         <v>43357</v>
@@ -23224,7 +23224,7 @@
     </row>
     <row r="431" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A431" s="6">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B431" s="3">
         <v>43360</v>
@@ -23276,7 +23276,7 @@
     </row>
     <row r="432" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A432" s="6">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B432" s="3">
         <v>43361</v>
@@ -23328,7 +23328,7 @@
     </row>
     <row r="433" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A433" s="6">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B433" s="3">
         <v>43362</v>
@@ -23380,7 +23380,7 @@
     </row>
     <row r="434" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A434" s="6">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B434" s="3">
         <v>43363</v>
@@ -23432,7 +23432,7 @@
     </row>
     <row r="435" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A435" s="6">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B435" s="3">
         <v>43364</v>
@@ -23484,7 +23484,7 @@
     </row>
     <row r="436" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A436" s="6">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B436" s="3">
         <v>43367</v>
@@ -23536,7 +23536,7 @@
     </row>
     <row r="437" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A437" s="6">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B437" s="3">
         <v>43368</v>
@@ -23588,7 +23588,7 @@
     </row>
     <row r="438" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A438" s="6">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B438" s="3">
         <v>43369</v>
@@ -23640,7 +23640,7 @@
     </row>
     <row r="439" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A439" s="6">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B439" s="3">
         <v>43370</v>
@@ -23692,7 +23692,7 @@
     </row>
     <row r="440" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A440" s="6">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B440" s="3">
         <v>43371</v>
@@ -23744,7 +23744,7 @@
     </row>
     <row r="441" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A441" s="6">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B441" s="3">
         <v>43374</v>
@@ -23796,7 +23796,7 @@
     </row>
     <row r="442" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A442" s="6">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B442" s="3">
         <v>43375</v>
@@ -23848,7 +23848,7 @@
     </row>
     <row r="443" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A443" s="6">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B443" s="3">
         <v>43376</v>
@@ -23900,7 +23900,7 @@
     </row>
     <row r="444" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A444" s="6">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B444" s="3">
         <v>43377</v>
@@ -23952,7 +23952,7 @@
     </row>
     <row r="445" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A445" s="6">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B445" s="3">
         <v>43378</v>
@@ -24004,7 +24004,7 @@
     </row>
     <row r="446" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A446" s="6">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B446" s="3">
         <v>43381</v>
@@ -24056,7 +24056,7 @@
     </row>
     <row r="447" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A447" s="6">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B447" s="3">
         <v>43382</v>
@@ -24108,7 +24108,7 @@
     </row>
     <row r="448" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A448" s="6">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B448" s="3">
         <v>43383</v>
@@ -24160,7 +24160,7 @@
     </row>
     <row r="449" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A449" s="6">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B449" s="3">
         <v>43384</v>
@@ -24212,7 +24212,7 @@
     </row>
     <row r="450" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A450" s="6">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B450" s="3">
         <v>43385</v>
@@ -24264,7 +24264,7 @@
     </row>
     <row r="451" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A451" s="6">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B451" s="3">
         <v>43388</v>
@@ -24316,7 +24316,7 @@
     </row>
     <row r="452" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A452" s="6">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B452" s="3">
         <v>43389</v>
@@ -24368,7 +24368,7 @@
     </row>
     <row r="453" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A453" s="6">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B453" s="3">
         <v>43390</v>
@@ -24420,7 +24420,7 @@
     </row>
     <row r="454" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A454" s="6">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B454" s="3">
         <v>43391</v>
@@ -24472,7 +24472,7 @@
     </row>
     <row r="455" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A455" s="6">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B455" s="3">
         <v>43392</v>
@@ -24524,7 +24524,7 @@
     </row>
     <row r="456" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A456" s="6">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B456" s="3">
         <v>43395</v>
@@ -24576,7 +24576,7 @@
     </row>
     <row r="457" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A457" s="6">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B457" s="3">
         <v>43396</v>
@@ -24628,7 +24628,7 @@
     </row>
     <row r="458" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A458" s="6">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B458" s="3">
         <v>43397</v>
@@ -24680,7 +24680,7 @@
     </row>
     <row r="459" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A459" s="6">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B459" s="3">
         <v>43398</v>
@@ -24732,7 +24732,7 @@
     </row>
     <row r="460" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A460" s="6">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B460" s="3">
         <v>43399</v>
@@ -24784,7 +24784,7 @@
     </row>
     <row r="461" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A461" s="6">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B461" s="3">
         <v>43402</v>
@@ -24836,7 +24836,7 @@
     </row>
     <row r="462" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A462" s="6">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B462" s="3">
         <v>43403</v>
@@ -24888,7 +24888,7 @@
     </row>
     <row r="463" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A463" s="6">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B463" s="3">
         <v>43404</v>
@@ -24940,7 +24940,7 @@
     </row>
     <row r="464" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A464" s="6">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B464" s="3">
         <v>43405</v>
@@ -24992,7 +24992,7 @@
     </row>
     <row r="465" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A465" s="6">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B465" s="3">
         <v>43406</v>
@@ -25044,7 +25044,7 @@
     </row>
     <row r="466" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A466" s="6">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B466" s="3">
         <v>43409</v>
@@ -25096,7 +25096,7 @@
     </row>
     <row r="467" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A467" s="6">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B467" s="3">
         <v>43410</v>
@@ -25148,7 +25148,7 @@
     </row>
     <row r="468" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A468" s="6">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B468" s="3">
         <v>43411</v>
@@ -25200,7 +25200,7 @@
     </row>
     <row r="469" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A469" s="6">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B469" s="3">
         <v>43412</v>
@@ -25252,7 +25252,7 @@
     </row>
     <row r="470" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A470" s="6">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B470" s="3">
         <v>43413</v>
@@ -25304,7 +25304,7 @@
     </row>
     <row r="471" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A471" s="6">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B471" s="3">
         <v>43416</v>
@@ -25356,7 +25356,7 @@
     </row>
     <row r="472" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A472" s="6">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B472" s="3">
         <v>43417</v>
@@ -25408,7 +25408,7 @@
     </row>
     <row r="473" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A473" s="6">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B473" s="3">
         <v>43418</v>
@@ -25460,7 +25460,7 @@
     </row>
     <row r="474" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A474" s="6">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B474" s="3">
         <v>43419</v>
@@ -25512,7 +25512,7 @@
     </row>
     <row r="475" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A475" s="6">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B475" s="3">
         <v>43420</v>
@@ -25564,7 +25564,7 @@
     </row>
     <row r="476" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A476" s="6">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B476" s="3">
         <v>43423</v>
@@ -25616,7 +25616,7 @@
     </row>
     <row r="477" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A477" s="6">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B477" s="3">
         <v>43424</v>
@@ -25668,7 +25668,7 @@
     </row>
     <row r="478" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A478" s="6">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B478" s="3">
         <v>43425</v>
@@ -25720,7 +25720,7 @@
     </row>
     <row r="479" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A479" s="6">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B479" s="3">
         <v>43427</v>
@@ -25772,7 +25772,7 @@
     </row>
     <row r="480" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A480" s="6">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B480" s="3">
         <v>43430</v>
@@ -25824,7 +25824,7 @@
     </row>
     <row r="481" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A481" s="6">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B481" s="3">
         <v>43431</v>
@@ -25876,7 +25876,7 @@
     </row>
     <row r="482" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A482" s="6">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B482" s="3">
         <v>43432</v>
@@ -25928,7 +25928,7 @@
     </row>
     <row r="483" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A483" s="6">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B483" s="3">
         <v>43433</v>
@@ -25980,7 +25980,7 @@
     </row>
     <row r="484" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A484" s="6">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B484" s="3">
         <v>43434</v>
@@ -26032,7 +26032,7 @@
     </row>
     <row r="485" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A485" s="6">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B485" s="3">
         <v>43437</v>
@@ -26084,7 +26084,7 @@
     </row>
     <row r="486" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A486" s="6">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B486" s="3">
         <v>43438</v>
@@ -26136,7 +26136,7 @@
     </row>
     <row r="487" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A487" s="6">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B487" s="3">
         <v>43440</v>
@@ -26188,7 +26188,7 @@
     </row>
     <row r="488" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A488" s="6">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B488" s="3">
         <v>43441</v>
@@ -26240,7 +26240,7 @@
     </row>
     <row r="489" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A489" s="6">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B489" s="3">
         <v>43444</v>
@@ -26292,7 +26292,7 @@
     </row>
     <row r="490" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A490" s="6">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B490" s="3">
         <v>43445</v>
@@ -26344,7 +26344,7 @@
     </row>
     <row r="491" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A491" s="6">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B491" s="3">
         <v>43446</v>
@@ -26396,7 +26396,7 @@
     </row>
     <row r="492" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A492" s="6">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B492" s="3">
         <v>43447</v>
@@ -26448,7 +26448,7 @@
     </row>
     <row r="493" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A493" s="6">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B493" s="3">
         <v>43448</v>
@@ -26500,7 +26500,7 @@
     </row>
     <row r="494" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A494" s="6">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B494" s="3">
         <v>43451</v>
@@ -26552,7 +26552,7 @@
     </row>
     <row r="495" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A495" s="6">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B495" s="3">
         <v>43452</v>
@@ -26604,7 +26604,7 @@
     </row>
     <row r="496" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A496" s="6">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B496" s="3">
         <v>43453</v>
@@ -26656,7 +26656,7 @@
     </row>
     <row r="497" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A497" s="6">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B497" s="3">
         <v>43454</v>
@@ -26708,7 +26708,7 @@
     </row>
     <row r="498" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A498" s="6">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B498" s="3">
         <v>43455</v>
@@ -26760,7 +26760,7 @@
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A499" s="6">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B499" s="3">
         <v>43458</v>
@@ -26812,7 +26812,7 @@
     </row>
     <row r="500" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A500" s="6">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B500" s="3">
         <v>43460</v>
@@ -26864,7 +26864,7 @@
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A501" s="6">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B501" s="3">
         <v>43461</v>
@@ -26916,7 +26916,7 @@
     </row>
     <row r="502" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A502" s="6">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B502" s="3">
         <v>43462</v>
@@ -26968,7 +26968,7 @@
     </row>
     <row r="503" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A503" s="6">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B503" s="3">
         <v>43465</v>
